--- a/REGULAR/HRMO/PAYAD, MARICEL QUILAO.xlsx
+++ b/REGULAR/HRMO/PAYAD, MARICEL QUILAO.xlsx
@@ -2103,9 +2103,9 @@
   <dimension ref="A2:K468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A390" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A405" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H392" sqref="H392"/>
+      <selection pane="bottomLeft" activeCell="H414" sqref="H414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10660,7 +10660,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="53" t="s">
         <v>66</v>
       </c>

--- a/REGULAR/HRMO/PAYAD, MARICEL QUILAO.xlsx
+++ b/REGULAR/HRMO/PAYAD, MARICEL QUILAO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="343">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1055,7 +1055,13 @@
     <t>UT(0-0-13)</t>
   </si>
   <si>
-    <t>12/14,19,20,26/2023</t>
+    <t>12/14,19,20,</t>
+  </si>
+  <si>
+    <t>SP (1-0-0)</t>
+  </si>
+  <si>
+    <t>12/6</t>
   </si>
 </sst>
 </file>
@@ -2106,9 +2112,9 @@
   <dimension ref="A2:K468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A405" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A411" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E421" sqref="E421"/>
+      <selection pane="bottomLeft" activeCell="K422" sqref="K422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,7 +2279,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4677,7 +4683,7 @@
       </c>
       <c r="E123" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -4797,7 +4803,7 @@
       </c>
       <c r="E128" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
@@ -7827,7 +7833,7 @@
       <c r="D264" s="40"/>
       <c r="E264" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="13" t="str">
@@ -7855,7 +7861,7 @@
       </c>
       <c r="E265" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="13" t="str">
@@ -7907,7 +7913,7 @@
       </c>
       <c r="E267" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F267" s="20"/>
       <c r="G267" s="13" t="str">
@@ -7959,7 +7965,7 @@
       </c>
       <c r="E269" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F269" s="20"/>
       <c r="G269" s="13" t="str">
@@ -8011,7 +8017,7 @@
       </c>
       <c r="E271" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="13" t="str">
@@ -8399,7 +8405,7 @@
       </c>
       <c r="E288" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.37399999999985</v>
+        <v>132.37399999999985</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="13" t="str">
@@ -11275,7 +11281,9 @@
       <c r="A419" s="23">
         <v>45199</v>
       </c>
-      <c r="B419" s="20"/>
+      <c r="B419" s="20" t="s">
+        <v>341</v>
+      </c>
       <c r="C419" s="13">
         <v>1.25</v>
       </c>
@@ -11289,7 +11297,9 @@
       <c r="H419" s="40"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="49" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
@@ -11348,11 +11358,11 @@
         <v>45291</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
